--- a/doc/Signal-Conditioning/BOM_LVDT_Sig_Cond.xlsx
+++ b/doc/Signal-Conditioning/BOM_LVDT_Sig_Cond.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa11995d18b3ed5a/TUM/Raumfahrtelektronik/Projekt/Signal-Conditioning/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="11_AD4DB114E441178AC67DF4C1DED3FFF0683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89378F79-9226-4138-B1CC-F2E1AC534E06}"/>
+  <xr:revisionPtr revIDLastSave="108" documentId="11_AD4DB114E441178AC67DF4C1DED3FFF0683EDF1A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F97EB2-089C-4A07-B128-5A60FCBF8EF1}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16470" yWindow="105" windowWidth="11865" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -103,12 +103,6 @@
     <t>QTY</t>
   </si>
   <si>
-    <t>https://www.mouser.de/ProductDetail/KOA-Speer/RK73H2BTTD3482D?qs=rI7uf1IzohTs5ODN%252BAUJZw%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.de/ProductDetail/Bourns/CR1206-FX-6341ELF?qs=x5wsLs3ZZ80LNPp3%252Bhr7fw%3D%3D</t>
-  </si>
-  <si>
     <t>C5/C7</t>
   </si>
   <si>
@@ -158,6 +152,12 @@
   </si>
   <si>
     <t>AD698</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Vishay-Dale/TNPW12066K26BEEN?qs=sGAEpiMZZMvdGkrng054t4IX%2F4ppktZy7cYjpuynz%252B8%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/Panasonic/ERA-8AEB1692V?qs=sGAE</t>
   </si>
 </sst>
 </file>
@@ -485,20 +485,20 @@
   <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.19921875" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
     <col min="3" max="3" width="4" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.06640625" customWidth="1"/>
-    <col min="8" max="8" width="46.46484375" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+    <col min="8" max="8" width="46.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -550,7 +550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>34.799999999999997</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>16</v>
@@ -573,10 +573,10 @@
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>6.34</v>
+        <v>6.26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>16</v>
@@ -599,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -610,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -628,12 +628,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -642,24 +642,24 @@
         <v>6.8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -668,24 +668,24 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -694,24 +694,24 @@
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -720,24 +720,24 @@
         <v>330</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -746,122 +746,122 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
         <v>34</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="s">
-        <v>36</v>
-      </c>
       <c r="G11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
